--- a/assets/workshop_downloads/isolate_metadata.xlsx
+++ b/assets/workshop_downloads/isolate_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lpritc/Documents/Development/GitHub/Strathclyde_Teaching/BM327_Workshop_1/assets/workshop_downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1C469E-7D15-0B4D-B677-4EF2B3ADF168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8FAD44-3D3D-8E4B-8840-A2500A8B1478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="19340" windowWidth="27640" windowHeight="16940" xr2:uid="{50C2A01A-4F1B-A24B-BFA9-8ED9B671555B}"/>
   </bookViews>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6097AD3-6FDF-334C-ABC1-318A2DFDABD0}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
